--- a/biology/Neurosciences/Mémoire_sémantique/Mémoire_sémantique.xlsx
+++ b/biology/Neurosciences/Mémoire_sémantique/Mémoire_sémantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9moire_s%C3%A9mantique</t>
+          <t>Mémoire_sémantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En psychologie cognitive, la mémoire sémantique est le système mnésique par lequel l'individu stocke ses connaissances générales : connaissances actuelles sur le monde, définitions de concepts abstraits, etc.
 La mémoire sémantique est un type de mémoire déclarative. En 1972, Endel Tulving propose de distinguer la mémoire épisodique et la mémoire sémantique comme deux composantes de la mémoire déclarative.
